--- a/ТКИ-341_Реверс_Инжиниринг.xlsx
+++ b/ТКИ-341_Реверс_Инжиниринг.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flash_a\Documents\GIT\Reverse_Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sidorenko\GIT_Reverse_Engineering\Reverse_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4EFF40-C37B-4BC1-B666-FAA6EE55066E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6E146F-C19B-4818-B5F9-EBE98908C860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="1170" windowWidth="23640" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
   <si>
     <t>ВЕДОМОСТЬ ПОСЕЩАЕМОСТИ ЗАНЯТИЙ СТУДЕНТАМИ ГРУППЫ ТКИ "Компьютерная безопасность" ИТТСУ РУТ (МИИТ)</t>
   </si>
@@ -210,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -292,12 +292,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -307,9 +313,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,10 +592,10 @@
   <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="A1:C1048576"/>
+      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -600,61 +603,62 @@
     <col min="2" max="2" width="37.28515625" customWidth="1"/>
     <col min="3" max="4" width="9" style="8"/>
     <col min="5" max="5" width="10.85546875"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="14.45" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
     </row>
     <row r="2" spans="1:43" ht="27.6" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
@@ -667,7 +671,9 @@
       <c r="F2" s="10">
         <v>46065</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="10">
+        <v>46072</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -777,7 +783,9 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -832,7 +840,9 @@
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -887,7 +897,9 @@
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -942,7 +954,9 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -997,7 +1011,9 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1052,7 +1068,9 @@
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1107,7 +1125,9 @@
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1162,7 +1182,9 @@
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1176,29 +1198,29 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="16"/>
-      <c r="AQ11" s="13"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="15"/>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="2">
@@ -1217,7 +1239,9 @@
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -1231,29 +1255,29 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="16"/>
-      <c r="AQ12" s="13"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="15"/>
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="2">
@@ -1272,7 +1296,9 @@
       <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1286,29 +1312,31 @@
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="16"/>
-      <c r="AQ13" s="13"/>
+      <c r="U13" s="10">
+        <v>46072</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="15"/>
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="2">
@@ -1327,7 +1355,9 @@
       <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1382,7 +1412,9 @@
       <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1437,7 +1469,9 @@
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1492,7 +1526,9 @@
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1547,7 +1583,9 @@
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1602,7 +1640,9 @@
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1657,7 +1697,9 @@
       <c r="F20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1712,7 +1754,9 @@
       <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1767,7 +1811,9 @@
       <c r="F22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1781,7 +1827,9 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="U22" s="10">
+        <v>46072</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -1822,7 +1870,9 @@
       <c r="F23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1836,7 +1886,9 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="U23" s="10">
+        <v>46072</v>
+      </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -1877,7 +1929,9 @@
       <c r="F24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1932,7 +1986,9 @@
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1987,7 +2043,9 @@
       <c r="F26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2042,7 +2100,9 @@
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2097,7 +2157,9 @@
       <c r="F28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2152,7 +2214,9 @@
       <c r="F29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2207,7 +2271,9 @@
       <c r="F30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2262,7 +2328,9 @@
       <c r="F31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2317,7 +2385,9 @@
       <c r="F32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2372,7 +2442,9 @@
       <c r="F33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2427,7 +2499,9 @@
       <c r="F34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2441,7 +2515,9 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="U34" s="10">
+        <v>46072</v>
+      </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -2482,7 +2558,9 @@
       <c r="F35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2575,7 +2653,9 @@
       <c r="F37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2614,7 +2694,17 @@
       <c r="AQ37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="19">
+    <mergeCell ref="A1:AQ1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AH11:AH13"/>
     <mergeCell ref="AN11:AN13"/>
     <mergeCell ref="AO11:AO13"/>
     <mergeCell ref="AP11:AP13"/>
@@ -2624,22 +2714,6 @@
     <mergeCell ref="AK11:AK13"/>
     <mergeCell ref="AL11:AL13"/>
     <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="A1:AQ1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="AH11:AH13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2656,56 +2730,56 @@
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
     </row>
     <row r="2" spans="1:42" ht="30">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3134,142 +3208,142 @@
       <c r="AP10" s="1"/>
     </row>
     <row r="11" spans="1:42">
-      <c r="A11" s="15">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="13"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="15"/>
     </row>
     <row r="12" spans="1:42">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="15"/>
     </row>
     <row r="13" spans="1:42">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-      <c r="AP13" s="13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="15"/>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" s="2">
@@ -4425,33 +4499,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AO11:AO13"/>
-    <mergeCell ref="AP11:AP13"/>
-    <mergeCell ref="AJ11:AJ13"/>
-    <mergeCell ref="AK11:AK13"/>
-    <mergeCell ref="AL11:AL13"/>
-    <mergeCell ref="AM11:AM13"/>
-    <mergeCell ref="AN11:AN13"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AI11:AI13"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="T11:T13"/>
     <mergeCell ref="A1:AP1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A11:A13"/>
@@ -4468,6 +4515,33 @@
     <mergeCell ref="M11:M13"/>
     <mergeCell ref="N11:N13"/>
     <mergeCell ref="O11:O13"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AI11:AI13"/>
+    <mergeCell ref="AO11:AO13"/>
+    <mergeCell ref="AP11:AP13"/>
+    <mergeCell ref="AJ11:AJ13"/>
+    <mergeCell ref="AK11:AK13"/>
+    <mergeCell ref="AL11:AL13"/>
+    <mergeCell ref="AM11:AM13"/>
+    <mergeCell ref="AN11:AN13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
